--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="300" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="3300" yWindow="100" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -93,6 +93,9 @@
   <si>
     <t>INT_coin</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buildTime</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -299,6 +302,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -312,7 +343,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="86">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -344,6 +375,20 @@
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -368,6 +413,20 @@
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -817,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -828,7 +887,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,10 +906,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -869,8 +931,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -889,8 +954,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -909,8 +977,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -929,8 +1000,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -949,8 +1023,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -969,8 +1046,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -989,8 +1069,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1009,8 +1092,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1029,8 +1115,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1049,8 +1138,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1069,8 +1161,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1089,8 +1184,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1109,8 +1207,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1129,8 +1230,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1148,6 +1252,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1164,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1175,7 +1282,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1194,10 +1301,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1216,8 +1326,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1236,8 +1349,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1256,8 +1372,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1276,8 +1395,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1296,8 +1418,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1316,8 +1441,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1336,8 +1464,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1356,8 +1487,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1376,8 +1510,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1396,8 +1533,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1416,8 +1556,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1436,8 +1579,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1456,8 +1602,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1476,8 +1625,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1495,6 +1647,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1511,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1522,7 +1677,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1541,10 +1696,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1563,8 +1721,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1583,8 +1744,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1603,8 +1767,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1623,8 +1790,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1643,8 +1813,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1663,8 +1836,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1683,8 +1859,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1703,8 +1882,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1723,8 +1905,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1743,8 +1928,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1763,8 +1951,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1783,8 +1974,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1803,8 +1997,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1823,8 +2020,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1842,6 +2042,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -1858,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1869,7 +2072,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1888,10 +2091,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1910,8 +2116,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1930,8 +2139,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1950,8 +2162,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1970,8 +2185,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1990,8 +2208,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2010,8 +2231,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2030,8 +2254,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2050,8 +2277,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2070,8 +2300,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2090,8 +2323,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2110,8 +2346,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2130,8 +2369,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2150,8 +2392,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2170,8 +2415,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2189,6 +2437,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2205,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2216,7 +2467,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2235,10 +2486,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2257,8 +2511,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2277,8 +2534,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2297,8 +2557,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2317,8 +2580,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2337,8 +2603,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2357,8 +2626,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2377,8 +2649,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2397,8 +2672,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2417,8 +2695,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2437,8 +2718,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2457,8 +2741,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2477,8 +2764,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2497,8 +2787,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2517,8 +2810,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2536,6 +2832,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2552,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2563,7 +2862,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2582,10 +2881,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2604,8 +2906,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2624,8 +2929,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2644,8 +2952,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2664,8 +2975,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2684,8 +2998,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2704,8 +3021,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2724,8 +3044,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2744,8 +3067,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2764,8 +3090,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2784,8 +3113,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2804,8 +3136,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2824,8 +3159,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2844,8 +3182,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2864,8 +3205,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2883,6 +3227,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -2899,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2910,7 +3257,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2929,10 +3276,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2951,8 +3301,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2971,8 +3324,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2991,8 +3347,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3011,8 +3370,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3031,8 +3393,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3051,8 +3416,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3071,8 +3439,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3091,8 +3462,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3111,8 +3485,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3131,8 +3508,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3151,8 +3531,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3171,8 +3554,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3191,8 +3577,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3211,8 +3600,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3230,6 +3622,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3246,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3257,7 +3652,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3276,10 +3671,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3298,8 +3696,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3318,8 +3719,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3338,8 +3742,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3358,8 +3765,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3378,8 +3788,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3398,8 +3811,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3418,8 +3834,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3438,8 +3857,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3458,8 +3880,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3478,8 +3903,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3498,8 +3926,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3518,8 +3949,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3538,8 +3972,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3558,8 +3995,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3577,6 +4017,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>
@@ -3593,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3604,7 +4047,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3623,10 +4066,13 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3645,8 +4091,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="G2" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3665,8 +4114,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3685,8 +4137,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1">
+      <c r="G4" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3705,8 +4160,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+      <c r="G5" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3725,8 +4183,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+      <c r="G6" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3745,8 +4206,11 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+      <c r="G7" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3765,8 +4229,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+      <c r="G8" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3785,8 +4252,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="G9" s="1">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3805,8 +4275,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+      <c r="G10" s="1">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3825,8 +4298,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+      <c r="G11" s="1">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3845,8 +4321,11 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+      <c r="G12" s="1">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3865,8 +4344,11 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="G13" s="1">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3885,8 +4367,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+      <c r="G14" s="1">
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3905,8 +4390,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+      <c r="G15" s="1">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3924,6 +4412,9 @@
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>49536</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="560" windowWidth="27520" windowHeight="14540" tabRatio="883" firstSheet="2" activeTab="17"/>
+    <workbookView xWindow="3780" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -242,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,8 +283,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -377,8 +390,158 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,8 +552,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="238">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -437,6 +603,81 @@
     <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -476,6 +717,81 @@
     <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -928,7 +1244,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -966,22 +1282,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>660</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -989,22 +1305,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1740</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1012,22 +1328,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4560</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1035,22 +1351,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8460</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1058,22 +1374,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>13920</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1081,22 +1397,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1104,22 +1420,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>39840</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1127,22 +1443,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>54880</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1150,22 +1466,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>72320</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1173,22 +1489,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>93600</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1196,22 +1512,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>118400</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1219,22 +1535,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>183700</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1242,22 +1558,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>225600</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -1265,22 +1581,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>271700</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -1288,22 +1604,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>384000</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>79200</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1639,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1361,22 +1677,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>687</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1384,22 +1700,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1810</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1407,22 +1723,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4743</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1430,22 +1746,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8799</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1453,22 +1769,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>14477</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1476,22 +1792,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>21840</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>15576</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1499,22 +1815,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>41434</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>23064</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1522,22 +1838,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>57076</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>30552</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1545,22 +1861,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>75213</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>38040</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1568,22 +1884,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>97344</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1591,22 +1907,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>123136</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>53016</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -1614,22 +1930,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>191048</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>60504</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -1637,22 +1953,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>234624</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>67992</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -1660,22 +1976,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>282568</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>75480</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -1683,22 +1999,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>399360</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>82968</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +2034,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1756,22 +2072,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>753</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -1779,22 +2095,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1984</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -1802,22 +2118,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5199</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -1825,22 +2141,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9645</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -1848,22 +2164,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>15869</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>9408</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -1871,22 +2187,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>23940</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>17616</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -1894,22 +2210,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>45418</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>25824</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -1917,22 +2233,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>62564</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>34032</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -1940,22 +2256,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>82445</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>42240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -1963,22 +2279,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>106704</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>50448</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -1986,22 +2302,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>134976</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>58656</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2009,22 +2325,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>209418</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>66864</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2032,22 +2348,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>257184</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>75072</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2055,22 +2371,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>309738</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2160</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>83280</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2078,22 +2394,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>437760</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2400</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>91488</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2429,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2151,22 +2467,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>792</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2174,22 +2490,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2088</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2197,22 +2513,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5472</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -2220,22 +2536,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>10152</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -2243,22 +2559,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>16704</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -2266,22 +2582,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>25200</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>18880</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -2289,22 +2605,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>47808</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>27520</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -2312,22 +2628,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>65856</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>36160</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -2335,22 +2651,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>86784</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -2358,22 +2674,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>112320</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>53440</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -2381,22 +2697,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>142080</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>62080</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -2404,22 +2720,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>220440</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>70720</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -2427,22 +2743,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>270720</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>79360</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -2450,22 +2766,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>326040</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2160</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -2473,22 +2789,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>460800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2400</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>96640</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2824,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2546,344 +2862,344 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>766</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>200</v>
+      <c r="B3" s="4">
+        <v>2019</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>300</v>
+      <c r="B4" s="4">
+        <v>5290</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>400</v>
+      <c r="B5" s="4">
+        <v>9814</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>500</v>
+      <c r="B6" s="4">
+        <v>16148</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>600</v>
+      <c r="B7" s="4">
+        <v>24360</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>17704</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>700</v>
+      <c r="B8" s="4">
+        <v>46215</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>26056</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>800</v>
+      <c r="B9" s="4">
+        <v>63661</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>34408</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>900</v>
+      <c r="B10" s="4">
+        <v>83892</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>42760</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1000</v>
+      <c r="B11" s="4">
+        <v>108576</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>51112</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1100</v>
+      <c r="B12" s="4">
+        <v>137344</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>59464</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1200</v>
+      <c r="B13" s="4">
+        <v>213092</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>67816</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>1300</v>
+      <c r="B14" s="4">
+        <v>261696</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>76168</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1400</v>
+      <c r="B15" s="4">
+        <v>315172</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>84520</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>1500</v>
+      <c r="B16" s="4">
+        <v>445440</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>92872</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +3219,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2941,22 +3257,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>740</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -2964,22 +3280,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1949</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -2987,22 +3303,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5108</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3010,22 +3326,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9476</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3033,22 +3349,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>15591</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3056,22 +3372,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>23521</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>17329</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3079,22 +3395,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>25393</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3102,22 +3418,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>61466</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3125,22 +3441,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>80999</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>41521</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3148,22 +3464,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>104833</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>49585</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3171,22 +3487,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>132608</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>57649</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3194,22 +3510,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>205745</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>65713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -3217,22 +3533,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>252673</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>73776</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -3240,22 +3556,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>304304</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>81841</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -3263,22 +3579,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>430081</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>89905</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3614,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3336,344 +3652,344 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>594</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>200</v>
+      <c r="B3" s="4">
+        <v>1566</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>300</v>
+      <c r="B4" s="4">
+        <v>4104</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>400</v>
+      <c r="B5" s="4">
+        <v>7614</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>500</v>
+      <c r="B6" s="4">
+        <v>12528</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>600</v>
+      <c r="B7" s="4">
+        <v>18900</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>14160</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>700</v>
+      <c r="B8" s="4">
+        <v>35856</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>20640</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>800</v>
+      <c r="B9" s="4">
+        <v>49392</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>27120</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>900</v>
+      <c r="B10" s="4">
+        <v>65088</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1000</v>
+      <c r="B11" s="4">
+        <v>84240</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>40080</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1100</v>
+      <c r="B12" s="4">
+        <v>106560</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>46560</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1200</v>
+      <c r="B13" s="4">
+        <v>165330</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>53040</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>1300</v>
+      <c r="B14" s="4">
+        <v>203040</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>59520</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1400</v>
+      <c r="B15" s="4">
+        <v>244530</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>1500</v>
+      <c r="B16" s="4">
+        <v>345600</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>72480</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +4009,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3731,22 +4047,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>608</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -3754,22 +4070,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1601</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -3777,22 +4093,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4196</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -3800,22 +4116,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7784</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -3823,22 +4139,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>12807</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -3846,22 +4162,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>19320</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>14048</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -3869,22 +4185,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>36653</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>20672</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -3892,22 +4208,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>50490</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>27296</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -3915,22 +4231,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>66535</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>33920</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -3938,22 +4254,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>86112</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>40544</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -3961,22 +4277,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>108928</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -3984,22 +4300,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>169004</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>53792</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4007,22 +4323,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>207552</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>60416</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4030,22 +4346,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>249964</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>67040</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4053,22 +4369,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>353280</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>73664</v>
       </c>
     </row>
   </sheetData>
@@ -4088,7 +4404,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4126,22 +4442,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>608</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4149,22 +4465,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1601</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4172,22 +4488,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4196</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4195,22 +4511,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7784</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -4218,22 +4534,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>12807</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -4241,22 +4557,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>19320</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>14048</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -4264,22 +4580,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>36653</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>20672</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -4287,22 +4603,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>50490</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>27296</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -4310,22 +4626,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>66535</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>33920</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -4333,22 +4649,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>86112</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>40544</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -4356,22 +4672,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>108928</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>47168</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4379,22 +4695,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>169004</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>53792</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4402,22 +4718,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>207552</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>60416</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4425,22 +4741,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>249964</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>67040</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4448,22 +4764,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>353280</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>73664</v>
       </c>
     </row>
   </sheetData>
@@ -4482,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4521,22 +4837,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>832</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4544,22 +4860,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2193</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4567,22 +4883,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5746</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4590,22 +4906,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>10660</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -4613,22 +4929,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>17540</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -4636,22 +4952,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>26460</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>20144</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -4659,22 +4975,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>50199</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>29216</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -4682,22 +4998,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>69149</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>38288</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -4705,22 +5021,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>91124</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>47360</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -4728,22 +5044,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>117936</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>56432</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -4751,22 +5067,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>149184</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>65504</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -4774,22 +5090,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>231462</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>74576</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -4797,22 +5113,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>284256</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>1920</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>83648</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -4820,22 +5136,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>342342</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2160</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>92720</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -4843,22 +5159,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>483840</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2400</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>101792</v>
       </c>
     </row>
   </sheetData>
@@ -4916,22 +5232,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>542</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -4939,22 +5255,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1427</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>984</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -4962,22 +5278,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3740</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -4985,22 +5301,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>6938</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5008,22 +5324,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11415</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5031,22 +5347,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>17220</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>11808</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5054,22 +5370,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>32669</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>17712</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5077,22 +5393,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>45002</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>23616</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5100,22 +5416,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>59303</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>29520</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5123,22 +5439,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>76752</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>35424</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5146,22 +5462,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>97088</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>41328</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5169,22 +5485,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>150634</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>47232</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5192,22 +5508,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>184992</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>53136</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5215,22 +5531,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>222794</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>59040</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5238,22 +5554,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>314880</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>64944</v>
       </c>
     </row>
   </sheetData>
@@ -5272,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5311,22 +5627,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>528</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -5334,22 +5650,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1392</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -5357,22 +5673,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3648</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -5380,22 +5696,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>6768</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5403,22 +5719,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11136</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5426,22 +5742,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>16800</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5449,22 +5765,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>31872</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5472,22 +5788,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>43904</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>23040</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5495,22 +5811,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>57856</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5518,22 +5834,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>74880</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>34560</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5541,22 +5857,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>94720</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5564,22 +5880,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>146960</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>46080</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5587,22 +5903,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>180480</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>51840</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -5610,22 +5926,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>217360</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -5633,22 +5949,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>307200</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>63360</v>
       </c>
     </row>
   </sheetData>
@@ -5668,7 +5984,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="F2" sqref="F2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5706,22 +6022,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>627</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -5729,22 +6045,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1653</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -5752,22 +6068,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4332</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -5775,22 +6091,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8037</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -5798,22 +6114,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>13224</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -5821,22 +6137,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>19950</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>13980</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -5844,22 +6160,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>37848</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>20820</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -5867,22 +6183,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>52136</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>27660</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -5890,22 +6206,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>68704</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -5913,22 +6229,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>88920</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>41340</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -5936,22 +6252,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>112480</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>48180</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -5959,22 +6275,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>174515</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>55020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -5982,22 +6298,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>214320</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>61860</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6005,22 +6321,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>258115</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>68700</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6028,22 +6344,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>364800</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>75540</v>
       </c>
     </row>
   </sheetData>
@@ -6101,22 +6417,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>555</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6124,22 +6440,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1462</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6147,22 +6463,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3831</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6170,22 +6486,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7107</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6193,22 +6509,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11693</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6216,22 +6532,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>17640</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>12096</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6239,22 +6555,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>33466</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>18144</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6262,22 +6578,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>46100</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>24192</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -6285,22 +6601,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>60749</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -6308,22 +6624,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>78624</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>36288</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -6331,22 +6647,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>99456</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>42336</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -6354,22 +6670,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>154308</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>48384</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -6377,22 +6693,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>189504</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>54432</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6400,22 +6716,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>228228</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>60480</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6423,22 +6739,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>322560</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>66528</v>
       </c>
     </row>
   </sheetData>
@@ -6458,7 +6774,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6496,22 +6812,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>568</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6519,22 +6835,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1497</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6542,22 +6858,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3922</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6565,22 +6881,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7276</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6588,22 +6904,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11972</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -6611,22 +6927,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>18060</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -6634,22 +6950,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>34263</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -6657,22 +6973,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>47197</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -6680,22 +6996,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>62196</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>30960</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -6703,22 +7019,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>80496</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>37152</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -6726,22 +7042,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>101824</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>43344</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -6749,22 +7065,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>157982</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>49536</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -6772,22 +7088,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>194016</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>55728</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -6795,22 +7111,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>233662</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>61920</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -6818,22 +7134,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>330240</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>68112</v>
       </c>
     </row>
   </sheetData>
@@ -6891,22 +7207,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>759</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -6914,22 +7230,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>2001</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -6937,22 +7253,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>5244</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -6960,22 +7276,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>9729</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -6983,22 +7299,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>16008</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>8880</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7006,22 +7322,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>24150</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -7029,22 +7345,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>45816</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>25440</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -7052,22 +7368,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>63112</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -7075,22 +7391,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>83168</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -7098,22 +7414,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>107640</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>50280</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7121,22 +7437,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>136160</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>58560</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7144,22 +7460,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>211255</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>66840</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7167,22 +7483,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>259440</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>75120</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7190,22 +7506,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>312455</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>83400</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7213,22 +7529,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>441600</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>91680</v>
       </c>
     </row>
   </sheetData>
@@ -7286,22 +7602,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>693</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -7309,22 +7625,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1827</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -7332,22 +7648,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>4788</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -7355,22 +7671,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>8883</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -7378,22 +7694,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>14616</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7401,22 +7717,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>22050</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>15920</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -7424,22 +7740,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>41832</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>23480</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -7447,22 +7763,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>57624</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>31040</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -7470,22 +7786,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>75936</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -7493,22 +7809,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>98280</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>46160</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7516,22 +7832,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>124320</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>53720</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7539,22 +7855,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>192885</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>61280</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7562,22 +7878,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>236880</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>68840</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7585,22 +7901,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>285285</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>76400</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -7608,22 +7924,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>403200</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>83960</v>
       </c>
     </row>
   </sheetData>
@@ -7643,7 +7959,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7681,22 +7997,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>561</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1">
@@ -7704,22 +8020,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>1479</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>155</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" customHeight="1">
@@ -7727,22 +8043,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>3876</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>258</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1">
@@ -7750,22 +8066,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>400</v>
+        <v>7191</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>413</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1">
@@ -7773,22 +8089,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>11832</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>774</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1">
@@ -7796,22 +8112,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>600</v>
+        <v>17850</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1548</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20" customHeight="1">
@@ -7819,22 +8135,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>700</v>
+        <v>33864</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2322</v>
+        <v>18760</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1">
@@ -7842,22 +8158,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>800</v>
+        <v>46648</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3096</v>
+        <v>24880</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
@@ -7865,22 +8181,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>900</v>
+        <v>61472</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>4644</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1">
@@ -7888,22 +8204,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>79560</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>6192</v>
+        <v>37120</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1">
@@ -7911,22 +8227,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1100</v>
+        <v>100640</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>12384</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1">
@@ -7934,22 +8250,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1200</v>
+        <v>156145</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>18576</v>
+        <v>49360</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" customHeight="1">
@@ -7957,22 +8273,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1300</v>
+        <v>191760</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>24768</v>
+        <v>55480</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1">
@@ -7980,22 +8296,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1400</v>
+        <v>230945</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>720</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>37152</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1">
@@ -8003,22 +8319,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1500</v>
+        <v>326400</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>960</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>49536</v>
+        <v>67720</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -1,107 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="1200" yWindow="680" windowWidth="34180" windowHeight="16060" tabRatio="883" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
-    <sheet name="stoneCarving" sheetId="30" r:id="rId2"/>
-    <sheet name="forestation" sheetId="33" r:id="rId3"/>
-    <sheet name="fastFix" sheetId="28" r:id="rId4"/>
-    <sheet name="ironSmelting" sheetId="31" r:id="rId5"/>
-    <sheet name="cropResearch" sheetId="34" r:id="rId6"/>
-    <sheet name="reinforcing" sheetId="29" r:id="rId7"/>
-    <sheet name="seniorTower" sheetId="32" r:id="rId8"/>
-    <sheet name="beerSupply" sheetId="35" r:id="rId9"/>
-    <sheet name="rescueTent" sheetId="36" r:id="rId10"/>
-    <sheet name="colonization" sheetId="37" r:id="rId11"/>
-    <sheet name="negotiation" sheetId="38" r:id="rId12"/>
-    <sheet name="trap" sheetId="39" r:id="rId13"/>
-    <sheet name="hideout" sheetId="40" r:id="rId14"/>
-    <sheet name="logistics" sheetId="41" r:id="rId15"/>
-    <sheet name="healingAgent" sheetId="42" r:id="rId16"/>
-    <sheet name="sketching" sheetId="43" r:id="rId17"/>
+    <sheet name="fastFix" sheetId="28" r:id="rId2"/>
+    <sheet name="reinforcing" sheetId="29" r:id="rId3"/>
+    <sheet name="rescueTent" sheetId="36" r:id="rId4"/>
+    <sheet name="colonization" sheetId="37" r:id="rId5"/>
+    <sheet name="negotiation" sheetId="38" r:id="rId6"/>
+    <sheet name="seniorTower" sheetId="32" r:id="rId7"/>
+    <sheet name="trap" sheetId="39" r:id="rId8"/>
+    <sheet name="forestation" sheetId="33" r:id="rId9"/>
+    <sheet name="stoneCarving" sheetId="30" r:id="rId10"/>
+    <sheet name="ironSmelting" sheetId="31" r:id="rId11"/>
+    <sheet name="cropResearch" sheetId="34" r:id="rId12"/>
+    <sheet name="beerSupply" sheetId="35" r:id="rId13"/>
+    <sheet name="healingAgent" sheetId="42" r:id="rId14"/>
+    <sheet name="sketching" sheetId="43" r:id="rId15"/>
+    <sheet name="hideout" sheetId="40" r:id="rId16"/>
+    <sheet name="logistics" sheetId="41" r:id="rId17"/>
     <sheet name="mintedCoin" sheetId="44" r:id="rId18"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>INT_buildTime</t>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,7 +226,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +243,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB1A0C7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,7 +307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="238">
+  <cellStyleXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -540,8 +550,136 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,8 +693,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="238">
+  <cellStyles count="366">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -678,6 +819,70 @@
     <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -792,6 +997,70 @@
     <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1241,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1252,7 +1521,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,15 +1543,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>660</v>
+        <v>1980</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1297,15 +1567,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1740</v>
+        <v>5220</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1320,15 +1593,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="H3" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4560</v>
+        <v>13680</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1343,15 +1619,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>4800</v>
+      </c>
+      <c r="H4" s="5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8460</v>
+        <v>25380</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1366,15 +1645,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>7200</v>
+      </c>
+      <c r="H5" s="5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13920</v>
+        <v>41760</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1389,15 +1671,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>14400</v>
+      </c>
+      <c r="H6" s="5">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21000</v>
+        <v>63000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1412,15 +1697,18 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>28800</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>39840</v>
+        <v>119520</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1435,15 +1723,18 @@
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>43200</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54880</v>
+        <v>164640</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1458,15 +1749,18 @@
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>57600</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72320</v>
+        <v>216960</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1481,15 +1775,18 @@
         <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>72000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>93600</v>
+        <v>280800</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1504,15 +1801,18 @@
         <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>118400</v>
+        <v>355200</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1527,15 +1827,18 @@
         <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>50400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>100800</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>183700</v>
+        <v>551100</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1550,15 +1853,18 @@
         <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>115200</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>225600</v>
+        <v>676800</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1573,15 +1879,18 @@
         <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>129600</v>
+      </c>
+      <c r="H14" s="5">
+        <v>13540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>271700</v>
+        <v>815100</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1596,15 +1905,18 @@
         <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="H15" s="5">
+        <v>16310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>384000</v>
+        <v>1152000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1619,7 +1931,10 @@
         <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>79200</v>
+        <v>158400</v>
+      </c>
+      <c r="H16" s="5">
+        <v>23040</v>
       </c>
     </row>
   </sheetData>
@@ -1636,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1647,7 +1962,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1669,15 +1984,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>687</v>
+        <v>1610</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1692,15 +2008,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>780</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1810</v>
+        <v>4250</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1715,15 +2034,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1560</v>
+      </c>
+      <c r="H3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4743</v>
+        <v>11120</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1738,15 +2060,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>3120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8799</v>
+        <v>20630</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1761,15 +2086,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>4680</v>
+      </c>
+      <c r="H5" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>14477</v>
+        <v>33930</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1784,15 +2112,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>9360</v>
+      </c>
+      <c r="H6" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>21840</v>
+        <v>51190</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1801,21 +2132,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>15576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>18720</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>41434</v>
+        <v>97110</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1824,21 +2158,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>23064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>28080</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>57076</v>
+        <v>133770</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1847,21 +2184,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>30552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>37440</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>75213</v>
+        <v>176280</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1870,151 +2210,172 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>38040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>46800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>97344</v>
+        <v>228150</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>45528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>56160</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>123136</v>
+        <v>288600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>53016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>65520</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>191048</v>
+        <v>447770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>60504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>74880</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>234624</v>
+        <v>549900</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>67992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>84240</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>282568</v>
+        <v>662270</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>75480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>93600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>399360</v>
+        <v>936000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>82968</v>
+        <v>102960</v>
+      </c>
+      <c r="H16" s="1">
+        <v>18720</v>
       </c>
     </row>
   </sheetData>
@@ -2031,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2042,7 +2403,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2064,15 +2425,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>753</v>
+        <v>1740</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2081,21 +2443,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1984</v>
+        <v>4570</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2104,21 +2469,24 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1680</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5199</v>
+        <v>11970</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2127,21 +2495,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>3360</v>
+      </c>
+      <c r="H4" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9645</v>
+        <v>22210</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2150,21 +2521,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>5040</v>
+      </c>
+      <c r="H5" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15869</v>
+        <v>36540</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2173,21 +2547,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>10080</v>
+      </c>
+      <c r="H6" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23940</v>
+        <v>55130</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2196,21 +2573,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>20160</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45418</v>
+        <v>104580</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2219,21 +2599,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>30240</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>62564</v>
+        <v>144060</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2242,21 +2625,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>34032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>40320</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>82445</v>
+        <v>189840</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2265,21 +2651,24 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>50400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>106704</v>
+        <v>245700</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2288,21 +2677,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>50448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>60480</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>134976</v>
+        <v>310800</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2311,21 +2703,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>58656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>70560</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>209418</v>
+        <v>482220</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2334,21 +2729,24 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1">
-        <v>66864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>80640</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>257184</v>
+        <v>592200</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2357,21 +2755,24 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1">
-        <v>75072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>90720</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>309738</v>
+        <v>713220</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2380,21 +2781,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="1">
-        <v>83280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>100800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>437760</v>
+        <v>1008000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2403,13 +2807,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G16" s="1">
-        <v>91488</v>
+        <v>110880</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20160</v>
       </c>
     </row>
   </sheetData>
@@ -2426,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2437,7 +2844,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2459,18 +2866,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>792</v>
+        <v>1370</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -2482,18 +2890,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>660</v>
+      </c>
+      <c r="H2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2088</v>
+        <v>3590</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2505,18 +2916,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1320</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5472</v>
+        <v>9410</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2528,18 +2942,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>2640</v>
+      </c>
+      <c r="H4" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10152</v>
+        <v>17450</v>
       </c>
       <c r="C5" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2551,18 +2968,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>3961</v>
+      </c>
+      <c r="H5" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16704</v>
+        <v>28710</v>
       </c>
       <c r="C6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2574,18 +2994,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>7921</v>
+      </c>
+      <c r="H6" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>25200</v>
+        <v>43320</v>
       </c>
       <c r="C7" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2597,18 +3020,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>18880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>15841</v>
+      </c>
+      <c r="H7" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>47808</v>
+        <v>82170</v>
       </c>
       <c r="C8" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -2620,18 +3046,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>27520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>23761</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65856</v>
+        <v>113190</v>
       </c>
       <c r="C9" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2643,18 +3072,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>36160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>31681</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>86784</v>
+        <v>149160</v>
       </c>
       <c r="C10" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -2666,21 +3098,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>39600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>112320</v>
+        <v>193050</v>
       </c>
       <c r="C11" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2689,21 +3124,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>53440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>47521</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>142080</v>
+        <v>244200</v>
       </c>
       <c r="C12" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2712,21 +3150,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>62080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>55441</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220440</v>
+        <v>378890</v>
       </c>
       <c r="C13" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2735,21 +3176,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>70720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>63361</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>270720</v>
+        <v>465300</v>
       </c>
       <c r="C14" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2758,21 +3202,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>79360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>71280</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>326040</v>
+        <v>560390</v>
       </c>
       <c r="C15" s="1">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2781,21 +3228,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>79200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>460800</v>
+        <v>792000</v>
       </c>
       <c r="C16" s="1">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2804,7 +3254,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>96640</v>
+        <v>87120</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15840</v>
       </c>
     </row>
   </sheetData>
@@ -2821,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2832,7 +3285,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2854,15 +3307,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>766</v>
+        <v>2230</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -2877,15 +3331,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>1880</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>2019</v>
+      <c r="B3" s="1">
+        <v>5880</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2900,15 +3357,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>2960</v>
+      </c>
+      <c r="H3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>5290</v>
+      <c r="B4" s="1">
+        <v>15390</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2923,15 +3383,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>5120</v>
+      </c>
+      <c r="H4" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>9814</v>
+      <c r="B5" s="1">
+        <v>28560</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2946,21 +3409,24 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>7280</v>
+      </c>
+      <c r="H5" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>16148</v>
+      <c r="B6" s="1">
+        <v>46980</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2969,21 +3435,24 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>13760</v>
+      </c>
+      <c r="H6" s="1">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>24360</v>
+      <c r="B7" s="1">
+        <v>70880</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2992,21 +3461,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>26720</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>46215</v>
+      <c r="B8" s="1">
+        <v>134460</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3015,21 +3487,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>26056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>39680</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>63661</v>
+      <c r="B9" s="1">
+        <v>185220</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -3038,21 +3513,24 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>34408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>52640</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>83892</v>
+      <c r="B10" s="1">
+        <v>244080</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3061,21 +3539,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42760</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>65600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>108576</v>
+      <c r="B11" s="1">
+        <v>315900</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3084,21 +3565,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>51112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>78560</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>137344</v>
+      <c r="B12" s="1">
+        <v>399600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3107,21 +3591,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>59464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>91520</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>213092</v>
+      <c r="B13" s="1">
+        <v>619990</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3130,21 +3617,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>67816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>104480</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>261696</v>
+      <c r="B14" s="1">
+        <v>761400</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3153,21 +3643,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>76168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>117440</v>
+      </c>
+      <c r="H14" s="1">
+        <v>15230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>315172</v>
+      <c r="B15" s="1">
+        <v>916990</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3176,21 +3669,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>84520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>130400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>18340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>445440</v>
+      <c r="B16" s="1">
+        <v>1296000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1680</v>
+        <v>960</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -3199,7 +3695,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>92872</v>
+        <v>143360</v>
+      </c>
+      <c r="H16" s="1">
+        <v>25920</v>
       </c>
     </row>
   </sheetData>
@@ -3216,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3227,7 +3726,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3249,15 +3748,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>740</v>
+        <v>2600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3272,15 +3772,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>2860</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1949</v>
+        <v>6860</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3295,15 +3798,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4120</v>
+      </c>
+      <c r="H3" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5108</v>
+        <v>17960</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3318,15 +3824,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>6640</v>
+      </c>
+      <c r="H4" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9476</v>
+        <v>33320</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3341,15 +3850,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>5233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>9160</v>
+      </c>
+      <c r="H5" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>15591</v>
+        <v>54810</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3358,243 +3870,276 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>9265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>16720</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>23521</v>
+        <v>82690</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>31840</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44621</v>
+        <v>156870</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>46960</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>61466</v>
+        <v>216090</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>33457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>62080</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>80999</v>
+        <v>284760</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>41521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>77200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>104833</v>
+        <v>368550</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>49585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>92320</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>132608</v>
+        <v>466200</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>57649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>107440</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>205745</v>
+        <v>723320</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>65713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>122560</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>252673</v>
+        <v>888300</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>73776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>137680</v>
+      </c>
+      <c r="H14" s="1">
+        <v>17770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>304304</v>
+        <v>1069820</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>81841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>152800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>430081</v>
+        <v>1512000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>89905</v>
+        <v>167920</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30240</v>
       </c>
     </row>
   </sheetData>
@@ -3611,10 +4156,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3622,7 +4167,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3644,15 +4189,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>594</v>
+        <v>2480</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -3667,15 +4213,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>2800</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1566</v>
+      <c r="B3" s="1">
+        <v>6530</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3690,15 +4239,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>4104</v>
+      <c r="B4" s="1">
+        <v>17100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -3713,15 +4265,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>6400</v>
+      </c>
+      <c r="H4" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>7614</v>
+      <c r="B5" s="1">
+        <v>31730</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3736,15 +4291,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>8800</v>
+      </c>
+      <c r="H5" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>12528</v>
+      <c r="B6" s="1">
+        <v>52200</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -3756,21 +4314,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>16000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>18900</v>
+      <c r="B7" s="1">
+        <v>78750</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -3779,21 +4340,24 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>14160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>30400</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>35856</v>
+      <c r="B8" s="1">
+        <v>149400</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -3802,21 +4366,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>44800</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>49392</v>
+      <c r="B9" s="1">
+        <v>205800</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3825,21 +4392,24 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>59200</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>65088</v>
+      <c r="B10" s="1">
+        <v>271200</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3848,21 +4418,24 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>73600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>84240</v>
+      <c r="B11" s="1">
+        <v>351000</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -3871,21 +4444,24 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>40080</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>88000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>106560</v>
+      <c r="B12" s="1">
+        <v>444000</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3894,21 +4470,24 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>46560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>102400</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>165330</v>
+      <c r="B13" s="1">
+        <v>688880</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -3917,21 +4496,24 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>53040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>116800</v>
+      </c>
+      <c r="H13" s="1">
+        <v>13780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>203040</v>
+      <c r="B14" s="1">
+        <v>846000</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -3940,21 +4522,24 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>59520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>131200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>16920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>244530</v>
+      <c r="B15" s="1">
+        <v>1018880</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -3963,21 +4548,24 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>145600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>345600</v>
+      <c r="B16" s="1">
+        <v>1440000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -3986,10 +4574,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>72480</v>
+        <v>160000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28800</v>
       </c>
     </row>
   </sheetData>
@@ -4006,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4017,7 +4608,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4039,15 +4630,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>608</v>
+        <v>2600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4062,15 +4654,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3660</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1601</v>
+        <v>6860</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4085,15 +4680,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4920</v>
+      </c>
+      <c r="H3" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4196</v>
+        <v>17960</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4108,15 +4706,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>7440</v>
+      </c>
+      <c r="H4" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7784</v>
+        <v>33320</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4131,15 +4732,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>9960</v>
+      </c>
+      <c r="H5" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>12807</v>
+        <v>54810</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4148,243 +4752,276 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>17520</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>19320</v>
+        <v>82690</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>14048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>32640</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>36653</v>
+        <v>156870</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>47760</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>50490</v>
+        <v>216090</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>62880</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>66535</v>
+        <v>284760</v>
       </c>
       <c r="C10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>33920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>78000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>86112</v>
+        <v>368550</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>93120</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>108928</v>
+        <v>466200</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>47168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>108240</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>169004</v>
+        <v>723320</v>
       </c>
       <c r="C13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>53792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>123360</v>
+      </c>
+      <c r="H13" s="1">
+        <v>14470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>207552</v>
+        <v>888300</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>60416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>138480</v>
+      </c>
+      <c r="H14" s="1">
+        <v>17770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>249964</v>
+        <v>1069820</v>
       </c>
       <c r="C15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>67040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>153600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>353280</v>
+        <v>1512000</v>
       </c>
       <c r="C16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>73664</v>
+        <v>168720</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30240</v>
       </c>
     </row>
   </sheetData>
@@ -4401,10 +5038,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4412,7 +5049,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4434,15 +5071,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>608</v>
+      <c r="B2" s="4">
+        <v>2110</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4457,15 +5095,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3420</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1601</v>
+      <c r="B3" s="4">
+        <v>5550</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4480,15 +5121,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4440</v>
+      </c>
+      <c r="H3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>4196</v>
+      <c r="B4" s="4">
+        <v>14540</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4503,15 +5147,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>6480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>7784</v>
+      <c r="B5" s="4">
+        <v>26970</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4526,15 +5173,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>8520</v>
+      </c>
+      <c r="H5" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>12807</v>
+      <c r="B6" s="4">
+        <v>44370</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4546,21 +5196,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>7424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>14640</v>
+      </c>
+      <c r="H6" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>19320</v>
+      <c r="B7" s="4">
+        <v>66940</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4569,21 +5222,24 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>14048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>26880</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>36653</v>
+      <c r="B8" s="4">
+        <v>126990</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -4592,21 +5248,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1">
-        <v>20672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>39120</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>50490</v>
+      <c r="B9" s="4">
+        <v>174930</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4615,21 +5274,24 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G9" s="1">
-        <v>27296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>51360</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>66535</v>
+      <c r="B10" s="4">
+        <v>230520</v>
       </c>
       <c r="C10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4638,21 +5300,24 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G10" s="1">
-        <v>33920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>63600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>86112</v>
+      <c r="B11" s="4">
+        <v>298350</v>
       </c>
       <c r="C11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4661,21 +5326,24 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G11" s="1">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>75840</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>108928</v>
+      <c r="B12" s="4">
+        <v>377400</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4684,21 +5352,24 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G12" s="1">
-        <v>47168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>88080</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>169004</v>
+      <c r="B13" s="4">
+        <v>585550</v>
       </c>
       <c r="C13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -4707,21 +5378,24 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G13" s="1">
-        <v>53792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>100320</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>207552</v>
+      <c r="B14" s="4">
+        <v>719100</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4730,21 +5404,24 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="1">
-        <v>60416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>112560</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>249964</v>
+      <c r="B15" s="4">
+        <v>866050</v>
       </c>
       <c r="C15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -4753,21 +5430,24 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="G15" s="1">
-        <v>67040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>124800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>17330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>353280</v>
+        <v>1224000</v>
       </c>
       <c r="C16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4776,10 +5456,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="G16" s="1">
-        <v>73664</v>
+        <v>137040</v>
+      </c>
+      <c r="H16" s="1">
+        <v>24480</v>
       </c>
     </row>
   </sheetData>
@@ -4796,10 +5479,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4807,7 +5490,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4829,15 +5512,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>832</v>
+        <v>3960</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -4852,15 +5536,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>5920</v>
+      </c>
+      <c r="H2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2193</v>
+        <v>10440</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -4875,15 +5562,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>7840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5746</v>
+        <v>27360</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -4898,15 +5588,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>5024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>11680</v>
+      </c>
+      <c r="H4" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10660</v>
+        <v>50760</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4921,15 +5614,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>6536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>15520</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>17540</v>
+        <v>83520</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4944,15 +5640,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>11072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>27040</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>26460</v>
+        <v>126000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -4967,15 +5666,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>20144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>50080</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>50199</v>
+        <v>239040</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -4990,15 +5692,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>29216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>73120</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>69149</v>
+        <v>329280</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5013,15 +5718,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>38288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>96160</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>91124</v>
+        <v>433920</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5036,15 +5744,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>47360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>119200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>117936</v>
+        <v>561600</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -5059,15 +5770,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>56432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>142240</v>
+      </c>
+      <c r="H11" s="1">
+        <v>11240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>149184</v>
+        <v>710400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -5082,15 +5796,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>65504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>165280</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>231462</v>
+        <v>1102200</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -5105,15 +5822,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>74576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>188320</v>
+      </c>
+      <c r="H13" s="1">
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>284256</v>
+        <v>1353600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -5128,15 +5848,18 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>83648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>211360</v>
+      </c>
+      <c r="H14" s="1">
+        <v>27080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>342342</v>
+        <v>1630200</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -5151,15 +5874,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>92720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>234400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>32610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>483840</v>
+        <v>2304000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5174,7 +5900,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>101792</v>
+        <v>257440</v>
+      </c>
+      <c r="H16" s="1">
+        <v>46080</v>
       </c>
     </row>
   </sheetData>
@@ -5191,10 +5920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5202,7 +5931,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5224,15 +5953,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>542</v>
+        <v>2730</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5247,15 +5977,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>1920</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1427</v>
+        <v>7180</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5270,15 +6003,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>3240</v>
+      </c>
+      <c r="H3" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3740</v>
+        <v>18810</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5293,15 +6029,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>5880</v>
+      </c>
+      <c r="H4" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6938</v>
+        <v>34900</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5316,15 +6055,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>8521</v>
+      </c>
+      <c r="H5" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11415</v>
+        <v>57420</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5339,15 +6081,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>5904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>16441</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17220</v>
+        <v>86630</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -5359,18 +6104,21 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>11808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>32281</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>32669</v>
+        <v>164340</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -5382,18 +6130,21 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>17712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>48121</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45002</v>
+        <v>226380</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5405,18 +6156,21 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>23616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>63961</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>59303</v>
+        <v>298320</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -5428,148 +6182,169 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1">
-        <v>29520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>79800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>76752</v>
+        <v>386100</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1">
-        <v>35424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>95641</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>97088</v>
+        <v>488400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1">
-        <v>41328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>111481</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>150634</v>
+        <v>757770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
-        <v>47232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>127321</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>184992</v>
+        <v>930600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G14" s="1">
-        <v>53136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>143160</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>222794</v>
+        <v>1120770</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G15" s="1">
-        <v>59040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>159000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>22420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>314880</v>
+        <v>1584000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="G16" s="1">
-        <v>64944</v>
+        <v>174840</v>
+      </c>
+      <c r="H16" s="1">
+        <v>31680</v>
       </c>
     </row>
   </sheetData>
@@ -5586,10 +6361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5597,7 +6372,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5619,15 +6394,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>528</v>
+        <v>3220</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -5642,15 +6418,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>2760</v>
+      </c>
+      <c r="H2" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1392</v>
+        <v>8490</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -5665,15 +6444,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4320</v>
+      </c>
+      <c r="H3" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3648</v>
+        <v>22230</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -5688,15 +6470,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>7440</v>
+      </c>
+      <c r="H4" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>6768</v>
+        <v>41250</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -5711,15 +6496,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>10560</v>
+      </c>
+      <c r="H5" s="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11136</v>
+        <v>67860</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -5734,18 +6522,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>19920</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>16800</v>
+        <v>102380</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5757,18 +6548,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>11520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>38640</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>31872</v>
+        <v>194220</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5780,18 +6574,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>17280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>57360</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>43904</v>
+        <v>267540</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5803,18 +6600,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>23040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>76080</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>57856</v>
+        <v>352560</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -5826,21 +6626,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>94800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>74880</v>
+        <v>456300</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -5849,21 +6652,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>34560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>113520</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>94720</v>
+        <v>577200</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -5872,21 +6678,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>40320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>132240</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>146960</v>
+        <v>895540</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -5895,21 +6704,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>46080</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>150960</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>180480</v>
+        <v>1099800</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -5918,21 +6730,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>51840</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>169680</v>
+      </c>
+      <c r="H14" s="1">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>217360</v>
+        <v>1324540</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -5941,21 +6756,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>188400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>307200</v>
+        <v>1872000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -5964,7 +6782,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>63360</v>
+        <v>207120</v>
+      </c>
+      <c r="H16" s="1">
+        <v>37440</v>
       </c>
     </row>
   </sheetData>
@@ -5981,10 +6802,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5992,7 +6813,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6014,15 +6835,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>627</v>
+        <v>2730</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -6037,15 +6859,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>2520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1653</v>
+        <v>7180</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -6060,15 +6885,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>3840</v>
+      </c>
+      <c r="H3" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4332</v>
+        <v>18810</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -6083,15 +6911,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>6480</v>
+      </c>
+      <c r="H4" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8037</v>
+        <v>34900</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -6106,15 +6937,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>9121</v>
+      </c>
+      <c r="H5" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>13224</v>
+        <v>57420</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -6129,15 +6963,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>7140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>17041</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>19950</v>
+        <v>86630</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -6146,21 +6983,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>13980</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>32881</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>37848</v>
+        <v>164340</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -6169,21 +7009,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>20820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>48721</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>52136</v>
+        <v>226380</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6192,21 +7035,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>27660</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>64561</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>68704</v>
+        <v>298320</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6215,21 +7061,24 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>80400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>88920</v>
+        <v>386100</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -6238,21 +7087,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>41340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>96241</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>112480</v>
+        <v>488400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6261,21 +7113,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>48180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>112081</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>174515</v>
+        <v>757770</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -6284,21 +7139,24 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F13" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>55020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>127921</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>214320</v>
+        <v>930600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -6307,21 +7165,24 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F14" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>61860</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>143760</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>258115</v>
+        <v>1120770</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6330,21 +7191,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F15" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>68700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>159600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>22420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>364800</v>
+        <v>1584000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -6353,13 +7217,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>75540</v>
+        <v>175440</v>
+      </c>
+      <c r="H16" s="1">
+        <v>31680</v>
       </c>
     </row>
   </sheetData>
@@ -6376,10 +7243,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6387,7 +7254,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6409,15 +7276,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>555</v>
+        <v>2970</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -6426,21 +7294,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3840</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1462</v>
+        <v>7830</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -6449,21 +7320,24 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>5280</v>
+      </c>
+      <c r="H3" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3831</v>
+        <v>20520</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -6472,21 +7346,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>8160</v>
+      </c>
+      <c r="H4" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7107</v>
+        <v>38070</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -6495,21 +7372,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>11040</v>
+      </c>
+      <c r="H5" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11693</v>
+        <v>62640</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -6518,21 +7398,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>19680</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17640</v>
+        <v>94500</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -6541,21 +7424,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>36960</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>33466</v>
+        <v>179280</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -6564,21 +7450,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>54240</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>46100</v>
+        <v>246960</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -6587,21 +7476,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>71520</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>60749</v>
+        <v>325440</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -6610,21 +7502,24 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>30240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>88800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>78624</v>
+        <v>421200</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -6633,21 +7528,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>36288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>106080</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>99456</v>
+        <v>532800</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -6656,21 +7554,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>42336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>123360</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>154308</v>
+        <v>826650</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -6679,21 +7580,24 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>48384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>140640</v>
+      </c>
+      <c r="H13" s="1">
+        <v>16540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>189504</v>
+        <v>1015200</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -6702,21 +7606,24 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>54432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>157920</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>228228</v>
+        <v>1222650</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -6725,21 +7632,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="F15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>60480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>175200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>24460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>322560</v>
+        <v>1728000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -6748,13 +7658,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>66528</v>
+        <v>192480</v>
+      </c>
+      <c r="H16" s="1">
+        <v>34560</v>
       </c>
     </row>
   </sheetData>
@@ -6771,10 +7684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6782,7 +7695,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6804,18 +7717,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>568</v>
+        <v>3100</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -6827,18 +7741,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>4700</v>
+      </c>
+      <c r="H2" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1497</v>
+        <v>8160</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -6850,18 +7767,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>6200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3922</v>
+        <v>21380</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -6873,18 +7793,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>9200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7276</v>
+        <v>39660</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -6896,18 +7819,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>12200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11972</v>
+        <v>65250</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -6919,18 +7845,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>21200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>18060</v>
+        <v>98440</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -6942,18 +7871,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>39200</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>34263</v>
+        <v>186750</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -6965,18 +7897,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>57200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>47197</v>
+        <v>257250</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -6988,18 +7923,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>75200</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>62196</v>
+        <v>339000</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -7011,21 +7949,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>30960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>93200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>80496</v>
+        <v>438750</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -7034,21 +7975,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>37152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>111200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>101824</v>
+        <v>555000</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -7057,21 +8001,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>43344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>129200</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>157982</v>
+        <v>861100</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -7080,21 +8027,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>49536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>147200</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>194016</v>
+        <v>1057500</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -7103,21 +8053,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>55728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>165200</v>
+      </c>
+      <c r="H14" s="1">
+        <v>21150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>233662</v>
+        <v>1273600</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="D15" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -7126,21 +8079,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>61920</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>183200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>25480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>330240</v>
+        <v>1800000</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D16" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -7149,7 +8105,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>68112</v>
+        <v>201200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
@@ -7166,10 +8125,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7177,7 +8136,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7199,15 +8158,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>759</v>
+        <v>3720</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7222,15 +8182,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3400</v>
+      </c>
+      <c r="H2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2001</v>
+        <v>9790</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7245,15 +8208,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>5200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>5244</v>
+        <v>25650</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7268,15 +8234,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>8800</v>
+      </c>
+      <c r="H4" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9729</v>
+        <v>47590</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7291,15 +8260,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4740</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>12400</v>
+      </c>
+      <c r="H5" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>16008</v>
+        <v>78300</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7308,243 +8280,276 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>23200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>24150</v>
+        <v>118130</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>17160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>44800</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45816</v>
+        <v>224100</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>25440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>66400</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>63112</v>
+        <v>308700</v>
       </c>
       <c r="C9" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>33720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>88000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>83168</v>
+        <v>406800</v>
       </c>
       <c r="C10" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>109600</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>107640</v>
+        <v>526500</v>
       </c>
       <c r="C11" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>50280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>131200</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>136160</v>
+        <v>666000</v>
       </c>
       <c r="C12" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>58560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>152800</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>211255</v>
+        <v>1033320</v>
       </c>
       <c r="C13" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>66840</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>174400</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>259440</v>
+        <v>1269000</v>
       </c>
       <c r="C14" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>75120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>196000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>312455</v>
+        <v>1528320</v>
       </c>
       <c r="C15" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>83400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>217600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>441600</v>
+        <v>2160000</v>
       </c>
       <c r="C16" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>91680</v>
+        <v>239200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43200</v>
       </c>
     </row>
   </sheetData>
@@ -7561,10 +8566,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7572,7 +8577,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7594,15 +8599,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>693</v>
+      <c r="B2" s="4">
+        <v>2850</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -7617,15 +8623,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>3380</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1827</v>
+      <c r="B3" s="4">
+        <v>7510</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -7640,15 +8649,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>4760</v>
+      </c>
+      <c r="H3" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>4788</v>
+      <c r="B4" s="4">
+        <v>19670</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -7663,15 +8675,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>7520</v>
+      </c>
+      <c r="H4" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>8883</v>
+      <c r="B5" s="4">
+        <v>36490</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -7686,260 +8701,296 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>10280</v>
+      </c>
+      <c r="H5" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>14616</v>
+      <c r="B6" s="4">
+        <v>60030</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>18560</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>22050</v>
+      <c r="B7" s="4">
+        <v>90570</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>15920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>35120</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>41832</v>
+      <c r="B8" s="4">
+        <v>171810</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>23480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>51680</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>57624</v>
+      <c r="B9" s="4">
+        <v>236670</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>31040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>68240</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>75936</v>
+      <c r="B10" s="4">
+        <v>311880</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>38600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>84800</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>98280</v>
+      <c r="B11" s="4">
+        <v>403650</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E11" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>46160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>101360</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>124320</v>
+      <c r="B12" s="4">
+        <v>510600</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E12" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>53720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>117920</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>192885</v>
+      <c r="B13" s="4">
+        <v>792210</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="E13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>61280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>134480</v>
+      </c>
+      <c r="H13" s="1">
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>236880</v>
+      <c r="B14" s="4">
+        <v>972900</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>68840</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>151040</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>285285</v>
+      <c r="B15" s="4">
+        <v>1171710</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="E15" s="1">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>76400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>167600</v>
+      </c>
+      <c r="H15" s="1">
+        <v>23440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>403200</v>
+        <v>1656000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="E16" s="1">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>83960</v>
+        <v>184160</v>
+      </c>
+      <c r="H16" s="1">
+        <v>33120</v>
       </c>
     </row>
   </sheetData>
@@ -7956,10 +9007,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7967,7 +9018,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7989,15 +9040,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>561</v>
+        <v>1490</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -8012,15 +9064,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+        <v>720</v>
+      </c>
+      <c r="H2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1479</v>
+        <v>3920</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -8035,15 +9090,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+        <v>1440</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3876</v>
+        <v>10260</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -8058,15 +9116,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+        <v>2880</v>
+      </c>
+      <c r="H4" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>7191</v>
+        <v>19040</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -8081,15 +9142,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+        <v>4320</v>
+      </c>
+      <c r="H5" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>11832</v>
+        <v>31320</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -8104,21 +9168,24 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>6520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+        <v>8640</v>
+      </c>
+      <c r="H6" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>17850</v>
+        <v>47250</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -8127,21 +9194,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>12640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
+        <v>17280</v>
+      </c>
+      <c r="H7" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>33864</v>
+        <v>89640</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -8150,21 +9220,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>18760</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
+        <v>25920</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>46648</v>
+        <v>123480</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -8173,21 +9246,24 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>24880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1">
+        <v>34560</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>61472</v>
+        <v>162720</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -8196,21 +9272,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
+        <v>43200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>79560</v>
+        <v>210600</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -8219,21 +9298,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>37120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
+        <v>51840</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>100640</v>
+        <v>266400</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -8242,21 +9324,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
+        <v>60480</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>156145</v>
+        <v>413330</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -8265,21 +9350,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>49360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
+        <v>69120</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>191760</v>
+        <v>507600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -8288,21 +9376,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>55480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
+        <v>77760</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>230945</v>
+        <v>611330</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -8311,21 +9402,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>61600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
+        <v>86400</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>326400</v>
+        <v>864000</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -8334,7 +9428,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>67720</v>
+        <v>95040</v>
+      </c>
+      <c r="H16" s="1">
+        <v>17280</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/ProductionTechLevelUp.xlsx
+++ b/gameData/shared/ProductionTechLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="0" windowWidth="34180" windowHeight="16060" tabRatio="883" activeTab="17"/>
+    <workbookView xWindow="4600" yWindow="1100" windowWidth="34180" windowHeight="16060" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="crane" sheetId="27" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="reinforcing" sheetId="29" r:id="rId3"/>
     <sheet name="rescueTent" sheetId="36" r:id="rId4"/>
     <sheet name="colonization" sheetId="37" r:id="rId5"/>
-    <sheet name="negotiation" sheetId="38" r:id="rId6"/>
+    <sheet name="recruitment" sheetId="38" r:id="rId6"/>
     <sheet name="seniorTower" sheetId="32" r:id="rId7"/>
     <sheet name="trap" sheetId="39" r:id="rId8"/>
     <sheet name="forestation" sheetId="33" r:id="rId9"/>
@@ -9315,7 +9315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -13470,8 +13470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H31"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
